--- a/data/outputs/OR_elsevier/38.xlsx
+++ b/data/outputs/OR_elsevier/38.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS20"/>
+  <dimension ref="A1:BU20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -927,6 +937,12 @@
           <t>2-s2.0-84977136253</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1124,6 +1140,12 @@
           <t>2-s2.0-85023753605</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1328,6 +1350,12 @@
         <is>
           <t>2-s2.0-85023738710</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1534,6 +1562,12 @@
           <t>2-s2.0-85016508026</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1731,6 +1765,12 @@
           <t>2-s2.0-85023773871</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1928,6 +1968,12 @@
           <t>2-s2.0-85008496510</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2124,6 +2170,12 @@
         <is>
           <t>2-s2.0-85023752687</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2317,6 +2369,12 @@
         <is>
           <t>2-s2.0-85023747029</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2507,6 +2565,12 @@
           <t>2-s2.0-85023743194</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2711,6 +2775,12 @@
         <is>
           <t>2-s2.0-85023743837</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2901,6 +2971,12 @@
           <t>2-s2.0-85023742758</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3097,6 +3173,12 @@
         <is>
           <t>2-s2.0-85023740032</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3291,6 +3373,12 @@
           <t>2-s2.0-85023748122</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3488,6 +3576,12 @@
           <t>2-s2.0-85023748432</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3688,6 +3782,12 @@
         <is>
           <t>2-s2.0-85023780094</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3878,6 +3978,12 @@
           <t>2-s2.0-85023747630</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4082,6 +4188,12 @@
         <is>
           <t>2-s2.0-85023748559</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4275,6 +4387,12 @@
         <is>
           <t>2-s2.0-85023777016</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4461,6 +4579,12 @@
           <t>2-s2.0-85023751205</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
